--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_aerosol.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_aerosol.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="323">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -143,6 +143,9 @@
     <t>cmip6.aerosol.key_properties.scheme_scope</t>
   </si>
   <si>
+    <t>Whole atmosphere</t>
+  </si>
+  <si>
     <t>1.1.4 - Basic Approximations</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Bulk aerosol model</t>
+  </si>
+  <si>
     <t>1.1.5 - Prognostic Variables Form</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
     <t>cmip6.aerosol.key_properties.prognostic_variables_form</t>
   </si>
   <si>
+    <t>Other: 3d mass/volume mixing ratio for aerosols</t>
+  </si>
+  <si>
     <t>1.1.6 - Number Of Tracers</t>
   </si>
   <si>
@@ -245,6 +254,9 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.method</t>
   </si>
   <si>
+    <t>Other: uses atmosphericchemistry time stepping</t>
+  </si>
+  <si>
     <t>1.3.2 - Split Operator Advection Timestep</t>
   </si>
   <si>
@@ -590,6 +602,9 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>5.1.3 - Prescribed Upper Boundary</t>
   </si>
   <si>
@@ -608,12 +623,15 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
   </si>
   <si>
-    <t>5.1.5 - Prescribed Fields Mmr</t>
+    <t>5.1.5 - Prescribed Fields Aod Plus Ccn</t>
   </si>
   <si>
     <t>List of species prescribed as AOD plus CCNs.</t>
   </si>
   <si>
+    <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -725,12 +743,21 @@
     <t>6.4.2 - Internal Mixture</t>
   </si>
   <si>
-    <t>Does H2O impact internal mixture?</t>
+    <t>Does H2O impact aerosol internal mixture?</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
   </si>
   <si>
+    <t>6.4.3 - External Mixture</t>
+  </si>
+  <si>
+    <t>Does H2O impact aerosol external mixture?</t>
+  </si>
+  <si>
+    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
+  </si>
+  <si>
     <t>6.5</t>
   </si>
   <si>
@@ -857,6 +884,36 @@
     <t>cmip6.aerosol.model.processes</t>
   </si>
   <si>
+    <t>Advection (horizontal)</t>
+  </si>
+  <si>
+    <t>Advection (vertical)</t>
+  </si>
+  <si>
+    <t>Ageing</t>
+  </si>
+  <si>
+    <t>Dry deposition</t>
+  </si>
+  <si>
+    <t>Heterogeneous chemistry</t>
+  </si>
+  <si>
+    <t>Oxidation (gas phase)</t>
+  </si>
+  <si>
+    <t>Oxidation (in cloud)</t>
+  </si>
+  <si>
+    <t>Sedimentation</t>
+  </si>
+  <si>
+    <t>Wet deposition (impaction scavenging)</t>
+  </si>
+  <si>
+    <t>Wet deposition (nucleation scavenging)</t>
+  </si>
+  <si>
     <t>7.1.3 - Coupling</t>
   </si>
   <si>
@@ -866,6 +923,18 @@
     <t>cmip6.aerosol.model.coupling</t>
   </si>
   <si>
+    <t>Clouds</t>
+  </si>
+  <si>
+    <t>Other: heterogeneouschemistry</t>
+  </si>
+  <si>
+    <t>Other: landsurface</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
     <t>7.1.4 - Gas Phase Precursors</t>
   </si>
   <si>
@@ -875,6 +944,15 @@
     <t>cmip6.aerosol.model.gas_phase_precursors</t>
   </si>
   <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>Terpene</t>
+  </si>
+  <si>
     <t>7.1.5 - Scheme Type</t>
   </si>
   <si>
@@ -884,6 +962,12 @@
     <t>cmip6.aerosol.model.scheme_type</t>
   </si>
   <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
     <t>7.1.6 - Bulk Scheme Species</t>
   </si>
   <si>
@@ -891,6 +975,21 @@
   </si>
   <si>
     <t>cmip6.aerosol.model.bulk_scheme_species</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Other: bc (black carbon / soot)</t>
+  </si>
+  <si>
+    <t>POM (particulate organic matter)</t>
+  </si>
+  <si>
+    <t>SOA (secondary organic aerosols)</t>
+  </si>
+  <si>
+    <t>Sulphate</t>
   </si>
 </sst>
 </file>
@@ -1710,11 +1809,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -1731,7 +1832,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -1743,15 +1844,17 @@
         <v>30</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
-      <c r="B20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>25</v>
@@ -1768,7 +1871,7 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -1780,15 +1883,17 @@
         <v>38</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>25</v>
@@ -1805,7 +1910,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -1814,18 +1919,20 @@
         <v>22</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
-      <c r="B28" s="13"/>
+      <c r="B28" s="13">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>25</v>
@@ -1842,7 +1949,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -1851,21 +1958,23 @@
         <v>22</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
-      <c r="B32" s="13"/>
+      <c r="B32" s="13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1874,12 +1983,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>25</v>
@@ -1896,19 +2005,19 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
@@ -1916,7 +2025,7 @@
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>25</v>
@@ -1933,19 +2042,19 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
@@ -1953,7 +2062,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>25</v>
@@ -1970,19 +2079,19 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -1990,10 +2099,10 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2002,12 +2111,12 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>25</v>
@@ -2024,7 +2133,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -2036,15 +2145,17 @@
         <v>38</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
-      <c r="B56" s="13"/>
+      <c r="B56" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>25</v>
@@ -2061,19 +2172,19 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -2081,7 +2192,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>25</v>
@@ -2098,19 +2209,19 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -2118,7 +2229,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>25</v>
@@ -2135,7 +2246,7 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -2144,10 +2255,10 @@
         <v>22</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
@@ -2155,7 +2266,7 @@
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>25</v>
@@ -2172,7 +2283,7 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -2184,7 +2295,7 @@
         <v>38</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
@@ -2192,10 +2303,10 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2207,7 +2318,7 @@
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>25</v>
@@ -2224,19 +2335,19 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
@@ -2244,7 +2355,7 @@
     </row>
     <row r="82" spans="1:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>25</v>
@@ -2261,19 +2372,19 @@
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C83" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1">
@@ -2281,7 +2392,7 @@
     </row>
     <row r="86" spans="1:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>25</v>
@@ -2298,19 +2409,19 @@
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1">
@@ -2318,10 +2429,10 @@
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2330,12 +2441,12 @@
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1">
       <c r="B92" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>25</v>
@@ -2352,7 +2463,7 @@
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>1</v>
@@ -2364,7 +2475,7 @@
         <v>30</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="24" customHeight="1">
@@ -2372,7 +2483,7 @@
     </row>
     <row r="98" spans="2:6" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>25</v>
@@ -2389,19 +2500,19 @@
     </row>
     <row r="99" spans="2:6" ht="24" customHeight="1">
       <c r="B99" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C99" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="24" customHeight="1">
@@ -2409,7 +2520,7 @@
     </row>
     <row r="102" spans="2:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>25</v>
@@ -2426,19 +2537,19 @@
     </row>
     <row r="103" spans="2:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="24" customHeight="1">
@@ -2446,7 +2557,7 @@
     </row>
     <row r="106" spans="2:6" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>25</v>
@@ -2463,19 +2574,19 @@
     </row>
     <row r="107" spans="2:6" ht="24" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C107" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="24" customHeight="1">
@@ -2483,7 +2594,7 @@
     </row>
     <row r="110" spans="2:6" ht="24" customHeight="1">
       <c r="B110" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>25</v>
@@ -2500,19 +2611,19 @@
     </row>
     <row r="111" spans="2:6" ht="24" customHeight="1">
       <c r="B111" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C111" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="24" customHeight="1">
@@ -2520,10 +2631,10 @@
     </row>
     <row r="115" spans="1:6" ht="24" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -2532,12 +2643,12 @@
     </row>
     <row r="116" spans="1:6" ht="24" customHeight="1">
       <c r="B116" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>25</v>
@@ -2554,7 +2665,7 @@
     </row>
     <row r="119" spans="1:6" ht="24" customHeight="1">
       <c r="B119" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C119" s="11" t="b">
         <v>1</v>
@@ -2566,7 +2677,7 @@
         <v>30</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="24" customHeight="1">
@@ -2574,7 +2685,7 @@
     </row>
     <row r="122" spans="1:6" ht="24" customHeight="1">
       <c r="B122" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>25</v>
@@ -2591,19 +2702,19 @@
     </row>
     <row r="123" spans="1:6" ht="24" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C123" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="24" customHeight="1">
@@ -2611,7 +2722,7 @@
     </row>
     <row r="126" spans="1:6" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>25</v>
@@ -2628,19 +2739,19 @@
     </row>
     <row r="127" spans="1:6" ht="24" customHeight="1">
       <c r="B127" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C127" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="24" customHeight="1">
@@ -2648,7 +2759,7 @@
     </row>
     <row r="130" spans="2:6" ht="24" customHeight="1">
       <c r="B130" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>25</v>
@@ -2665,19 +2776,19 @@
     </row>
     <row r="131" spans="2:6" ht="24" customHeight="1">
       <c r="B131" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C131" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="2:6" ht="24" customHeight="1">
@@ -2745,10 +2856,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2776,10 +2887,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2788,10 +2899,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2800,12 +2911,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -2822,7 +2933,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -2834,7 +2945,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -2842,7 +2953,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -2859,7 +2970,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -2871,7 +2982,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -2879,7 +2990,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -2896,7 +3007,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -2908,7 +3019,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -2916,7 +3027,7 @@
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -2933,7 +3044,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -2945,7 +3056,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -2983,10 +3094,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2995,10 +3106,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3007,12 +3118,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -3029,7 +3140,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3041,7 +3152,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3049,7 +3160,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3066,7 +3177,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -3078,7 +3189,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -3086,7 +3197,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -3103,19 +3214,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3123,7 +3234,7 @@
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -3140,19 +3251,19 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -3160,7 +3271,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>25</v>
@@ -3177,19 +3288,19 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -3197,7 +3308,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>25</v>
@@ -3214,19 +3325,19 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -3234,7 +3345,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>25</v>
@@ -3251,19 +3362,19 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
@@ -3271,7 +3382,7 @@
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>25</v>
@@ -3288,19 +3399,19 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
@@ -3308,7 +3419,7 @@
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>25</v>
@@ -3325,19 +3436,19 @@
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
@@ -3375,10 +3486,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3387,10 +3498,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3399,12 +3510,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -3421,7 +3532,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3433,7 +3544,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3441,7 +3552,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3458,27 +3569,29 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -3495,27 +3608,29 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -3532,19 +3647,19 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -3552,7 +3667,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>25</v>
@@ -3569,19 +3684,19 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -3594,7 +3709,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3608,10 +3723,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3620,10 +3735,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3632,12 +3747,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -3654,7 +3769,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -3666,7 +3781,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -3674,10 +3789,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3686,12 +3801,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -3708,19 +3823,19 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -3728,7 +3843,7 @@
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -3745,19 +3860,19 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
@@ -3765,7 +3880,7 @@
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>25</v>
@@ -3782,19 +3897,19 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
@@ -3802,10 +3917,10 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3817,7 +3932,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>25</v>
@@ -3834,7 +3949,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -3843,10 +3958,10 @@
         <v>22</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -3854,7 +3969,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>25</v>
@@ -3871,7 +3986,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -3880,10 +3995,10 @@
         <v>22</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
@@ -3891,7 +4006,7 @@
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>25</v>
@@ -3908,19 +4023,19 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
@@ -3928,10 +4043,10 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3943,7 +4058,7 @@
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>25</v>
@@ -3960,7 +4075,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -3969,10 +4084,10 @@
         <v>22</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -3980,7 +4095,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>25</v>
@@ -3997,7 +4112,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -4006,72 +4121,72 @@
         <v>22</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="13"/>
     </row>
+    <row r="54" spans="1:6" ht="24" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="B55" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
-      <c r="B56" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B56" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
-      <c r="B59" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C59" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>241</v>
-      </c>
+      <c r="A59" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
-      <c r="B60" s="13"/>
+      <c r="B60" s="7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>25</v>
@@ -4088,7 +4203,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -4097,10 +4212,10 @@
         <v>22</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -4108,7 +4223,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>25</v>
@@ -4125,7 +4240,7 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -4134,72 +4249,72 @@
         <v>22</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="13"/>
     </row>
+    <row r="70" spans="1:6" ht="24" customHeight="1">
+      <c r="B70" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="B71" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
-      <c r="B72" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="24" customHeight="1">
-      <c r="B74" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B72" s="13"/>
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
-      <c r="B75" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C75" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>253</v>
-      </c>
+      <c r="A75" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
-      <c r="B76" s="13"/>
+      <c r="B76" s="7" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>25</v>
@@ -4216,7 +4331,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -4225,10 +4340,10 @@
         <v>22</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
@@ -4236,7 +4351,7 @@
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>25</v>
@@ -4253,19 +4368,19 @@
     </row>
     <row r="83" spans="2:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C83" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="24" customHeight="1">
@@ -4273,7 +4388,7 @@
     </row>
     <row r="86" spans="2:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>25</v>
@@ -4290,19 +4405,19 @@
     </row>
     <row r="87" spans="2:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C87" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="24" customHeight="1">
@@ -4310,7 +4425,7 @@
     </row>
     <row r="90" spans="2:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>25</v>
@@ -4327,7 +4442,7 @@
     </row>
     <row r="91" spans="2:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>1</v>
@@ -4336,10 +4451,10 @@
         <v>22</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="24" customHeight="1">
@@ -4347,7 +4462,7 @@
     </row>
     <row r="94" spans="2:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>25</v>
@@ -4364,7 +4479,7 @@
     </row>
     <row r="95" spans="2:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>1</v>
@@ -4373,17 +4488,54 @@
         <v>22</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="24" customHeight="1">
       <c r="B96" s="13"/>
     </row>
+    <row r="98" spans="2:6" ht="24" customHeight="1">
+      <c r="B98" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="24" customHeight="1">
+      <c r="B99" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="24" customHeight="1">
+      <c r="B100" s="13"/>
+    </row>
   </sheetData>
-  <dataValidations count="14">
+  <dataValidations count="15">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
@@ -4408,25 +4560,28 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4436,7 +4591,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4450,10 +4605,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4462,10 +4617,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -4474,12 +4629,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -4496,7 +4651,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -4508,7 +4663,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -4516,7 +4671,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -4533,7 +4688,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -4545,169 +4700,274 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1">
+      <c r="B13" s="13" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="B14" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>28</v>
+      <c r="B14" s="13" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" s="11" t="b">
+      <c r="B15" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1">
+      <c r="B16" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="24" customHeight="1">
+      <c r="B17" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="24" customHeight="1">
+      <c r="B18" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="24" customHeight="1">
+      <c r="B19" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="24" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="24" customHeight="1">
+      <c r="B21" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="24" customHeight="1">
+      <c r="B23" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="24" customHeight="1">
+      <c r="B24" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
-    </row>
-    <row r="18" spans="2:6" ht="24" customHeight="1">
-      <c r="B18" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="24" customHeight="1">
-      <c r="B19" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C19" s="11" t="b">
+      <c r="F24" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="24" customHeight="1">
+      <c r="B25" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="24" customHeight="1">
+      <c r="B26" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="24" customHeight="1">
+      <c r="B27" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="24" customHeight="1">
+      <c r="B28" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="24" customHeight="1">
+      <c r="B30" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="24" customHeight="1">
+      <c r="B31" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="24" customHeight="1">
-      <c r="B20" s="13"/>
-    </row>
-    <row r="22" spans="2:6" ht="24" customHeight="1">
-      <c r="B22" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="24" customHeight="1">
-      <c r="B23" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C23" s="11" t="b">
+      <c r="F31" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="24" customHeight="1">
+      <c r="B32" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="24" customHeight="1">
+      <c r="B33" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="24" customHeight="1">
+      <c r="B34" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="24" customHeight="1">
+      <c r="B36" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="24" customHeight="1">
+      <c r="B37" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="24" customHeight="1">
-      <c r="B24" s="13"/>
-    </row>
-    <row r="26" spans="2:6" ht="24" customHeight="1">
-      <c r="B26" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="24" customHeight="1">
-      <c r="B27" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C27" s="11" t="b">
+      <c r="F37" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="24" customHeight="1">
+      <c r="B38" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="24" customHeight="1">
+      <c r="B39" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="24" customHeight="1">
+      <c r="B41" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="24" customHeight="1">
+      <c r="B42" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C42" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="24" customHeight="1">
-      <c r="B28" s="13"/>
+      <c r="F42" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="24" customHeight="1">
+      <c r="B43" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="24" customHeight="1">
+      <c r="B44" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="24" customHeight="1">
+      <c r="B45" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="24" customHeight="1">
+      <c r="B46" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="24" customHeight="1">
+      <c r="B47" s="13" t="s">
+        <v>322</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"Radiation,Land surface,Heterogeneous chemistry,Clouds,Ocean,Cryosphere,Gas phase chemistry,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"DMS,SO2,Ammonia,Iodine,Terpene,Isoprene,VOC,NOx,Other: document in the cell to the right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>"Bulk,Modal,Bin,Other: document in the cell to the right"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_aerosol.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_aerosol.xlsx
@@ -8,20 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Transport" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Emissions" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Concentrations" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Optical Radiative Properties" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Model" sheetId="8" r:id="rId8"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Emissions" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Concentrations" sheetId="7" r:id="rId7"/>
+    <sheet name="7. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
+    <sheet name="8. Model" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="524">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -53,25 +54,34 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Transport</t>
-  </si>
-  <si>
-    <t>4. Emissions</t>
-  </si>
-  <si>
-    <t>5. Concentrations</t>
-  </si>
-  <si>
-    <t>6. Optical Radiative Properties</t>
-  </si>
-  <si>
-    <t>7. Model</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Transport</t>
+  </si>
+  <si>
+    <t>5. Emissions</t>
+  </si>
+  <si>
+    <t>6. Concentrations</t>
+  </si>
+  <si>
+    <t>7. Optical Radiative Properties</t>
+  </si>
+  <si>
+    <t>8. Model</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -86,24 +96,51 @@
     <t>1.0.2</t>
   </si>
   <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Key properties of the aerosol model</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of aerosol model code</t>
   </si>
   <si>
@@ -113,7 +150,7 @@
     <t>GFDL AM3 Predicted Aerosols</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -128,7 +165,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -143,7 +180,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.1.4 *</t>
+    <t>2.1.4 *</t>
   </si>
   <si>
     <t>Scheme Scope</t>
@@ -158,9 +195,6 @@
     <t>cmip6.aerosol.key_properties.scheme_scope</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Whole atmosphere</t>
   </si>
   <si>
@@ -176,7 +210,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.1.5 *</t>
+    <t>2.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -191,7 +225,7 @@
     <t>Bulk aerosol model</t>
   </si>
   <si>
-    <t>1.1.6 *</t>
+    <t>2.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -212,7 +246,7 @@
     <t>3D number concentration for aerosols</t>
   </si>
   <si>
-    <t>1.1.7 *</t>
+    <t>2.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -227,7 +261,7 @@
     <t>cmip6.aerosol.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>1.1.8 *</t>
+    <t>2.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -242,7 +276,7 @@
     <t>cmip6.aerosol.key_properties.family_approach</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -251,7 +285,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -263,7 +297,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2 </t>
+    <t xml:space="preserve">2.2.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -275,7 +309,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.3 </t>
+    <t xml:space="preserve">2.2.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -287,7 +321,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -296,7 +330,7 @@
     <t>Physical properties of seawater in ocean</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of physical properties of seawater in ocean in aerosol model.</t>
@@ -305,7 +339,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -329,7 +363,7 @@
     <t>Specific timestepping (integrated)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -341,7 +375,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.4 </t>
+    <t xml:space="preserve">2.3.4 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -353,7 +387,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t>1.3.5 *</t>
+    <t>2.3.5 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -365,7 +399,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>1.3.6 *</t>
+    <t>2.3.6 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -401,13 +435,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Meteorological Forcings</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Overview of  in aerosol model.</t>
@@ -416,7 +450,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.2 </t>
+    <t xml:space="preserve">2.4.2 </t>
   </si>
   <si>
     <t>Variables 3D</t>
@@ -428,7 +462,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.3 </t>
+    <t xml:space="preserve">2.4.3 </t>
   </si>
   <si>
     <t>Variables 2D</t>
@@ -440,7 +474,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.4 </t>
+    <t xml:space="preserve">2.4.4 </t>
   </si>
   <si>
     <t>Frequency</t>
@@ -452,7 +486,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.frequency</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -461,7 +495,7 @@
     <t>Resolution in the aerosol model grid</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the aerosol model grid in aerosol model.</t>
@@ -470,7 +504,7 @@
     <t>cmip6.aerosol.key_properties.resolution.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -479,7 +513,7 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.3 </t>
+    <t xml:space="preserve">2.5.3 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -491,7 +525,7 @@
     <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.4 </t>
+    <t xml:space="preserve">2.5.4 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -503,7 +537,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.5 </t>
+    <t xml:space="preserve">2.5.5 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -515,7 +549,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>1.5.6 *</t>
+    <t>2.5.6 *</t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -527,7 +561,7 @@
     <t>cmip6.aerosol.key_properties.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -536,7 +570,7 @@
     <t>Tuning methodology for aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1 </t>
+    <t xml:space="preserve">2.6.1 </t>
   </si>
   <si>
     <t>Overview of tuning methodology for aerosol model in aerosol model.</t>
@@ -545,7 +579,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.6.2 *</t>
+    <t>2.6.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -557,7 +591,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.3 </t>
+    <t xml:space="preserve">2.6.3 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -569,7 +603,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.4 </t>
+    <t xml:space="preserve">2.6.4 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -581,7 +615,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.5 </t>
+    <t xml:space="preserve">2.6.5 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -593,7 +627,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -602,7 +636,7 @@
     <t>Aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in aerosol model.</t>
@@ -611,7 +645,7 @@
     <t>cmip6.aerosol.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in aerosol model.</t>
@@ -620,7 +654,7 @@
     <t>cmip6.aerosol.grid.overview</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>3.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -632,7 +666,7 @@
     <t>cmip6.aerosol.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -641,7 +675,7 @@
     <t>Resolution in the atmospheric aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the atmospheric aerosol grid in aerosol model.</t>
@@ -650,13 +684,13 @@
     <t>cmip6.aerosol.grid.resolution.overview</t>
   </si>
   <si>
-    <t>2.2.2 *</t>
+    <t>3.2.2 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">3.2.3 </t>
   </si>
   <si>
     <t>Expression quoted for gross comparisons of resolution, e.g. 50km or 0.1 degrees etc.</t>
@@ -665,19 +699,19 @@
     <t>cmip6.aerosol.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.4 </t>
+    <t xml:space="preserve">3.2.4 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.5 </t>
+    <t xml:space="preserve">3.2.5 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>2.2.6 *</t>
+    <t>3.2.6 *</t>
   </si>
   <si>
     <t>Set to true if grid resolution changes during execution.</t>
@@ -686,7 +720,7 @@
     <t>cmip6.aerosol.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -695,7 +729,7 @@
     <t>Aerosol transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in aerosol model.</t>
@@ -704,7 +738,7 @@
     <t>cmip6.aerosol.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol transport in aerosol model.</t>
@@ -713,7 +747,7 @@
     <t>cmip6.aerosol.transport.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -740,7 +774,7 @@
     <t>Specific transport scheme (lagrangian)</t>
   </si>
   <si>
-    <t>3.1.4 *</t>
+    <t>4.1.4 *</t>
   </si>
   <si>
     <t>Mass Conservation Scheme</t>
@@ -761,7 +795,7 @@
     <t>Gradients monotonicity</t>
   </si>
   <si>
-    <t>3.1.5 *</t>
+    <t>4.1.5 *</t>
   </si>
   <si>
     <t>Convention</t>
@@ -779,7 +813,7 @@
     <t>Vertical velocities connected to tracers</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Emissions</t>
@@ -788,7 +822,7 @@
     <t>Atmospheric aerosol emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions in aerosol model.</t>
@@ -797,7 +831,7 @@
     <t>cmip6.aerosol.emissions.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
@@ -806,7 +840,7 @@
     <t>cmip6.aerosol.emissions.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>5.1.3 *</t>
   </si>
   <si>
     <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
@@ -833,7 +867,7 @@
     <t>Interactive above surface</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.4 </t>
+    <t xml:space="preserve">5.1.4 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -869,7 +903,7 @@
     <t>Anthropogenic</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.5 </t>
+    <t xml:space="preserve">5.1.5 </t>
   </si>
   <si>
     <t>Prescribed Climatology</t>
@@ -896,7 +930,7 @@
     <t>Daily</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.6 </t>
+    <t xml:space="preserve">5.1.6 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -908,7 +942,7 @@
     <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.7 </t>
+    <t xml:space="preserve">5.1.7 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -920,7 +954,7 @@
     <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.8 </t>
+    <t xml:space="preserve">5.1.8 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -932,7 +966,7 @@
     <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.9 </t>
+    <t xml:space="preserve">5.1.9 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -944,7 +978,7 @@
     <t>cmip6.aerosol.emissions.other_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.10 </t>
+    <t xml:space="preserve">5.1.10 </t>
   </si>
   <si>
     <t>Other Method Characteristics</t>
@@ -956,7 +990,7 @@
     <t>cmip6.aerosol.emissions.other_method_characteristics</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Concentrations</t>
@@ -965,7 +999,7 @@
     <t>Atmospheric aerosol concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the concentrations in aerosol model.</t>
@@ -974,7 +1008,7 @@
     <t>cmip6.aerosol.concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
@@ -983,7 +1017,7 @@
     <t>cmip6.aerosol.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.3 </t>
+    <t xml:space="preserve">6.1.3 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -995,10 +1029,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.4 </t>
+    <t xml:space="preserve">6.1.4 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1010,7 +1041,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.5 </t>
+    <t xml:space="preserve">6.1.5 </t>
   </si>
   <si>
     <t>Prescribed Fields Mmr</t>
@@ -1022,7 +1053,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.6 </t>
+    <t xml:space="preserve">6.1.6 </t>
   </si>
   <si>
     <t>Prescribed Fields Aod Plus Ccn</t>
@@ -1034,7 +1065,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>7.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties</t>
@@ -1043,7 +1074,7 @@
     <t>Aerosol optical and radiative properties</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">7.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the optical radiative properties in aerosol model.</t>
@@ -1052,7 +1083,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">7.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
@@ -1061,7 +1092,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.overview</t>
   </si>
   <si>
-    <t>6.2</t>
+    <t>7.2</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Absorption</t>
@@ -1070,7 +1101,7 @@
     <t>Absortion properties in aerosol scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.1 </t>
+    <t xml:space="preserve">7.2.1 </t>
   </si>
   <si>
     <t>Overview of absortion properties in aerosol scheme in aerosol model.</t>
@@ -1079,7 +1110,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.2 </t>
+    <t xml:space="preserve">7.2.2 </t>
   </si>
   <si>
     <t>Black Carbon</t>
@@ -1094,7 +1125,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.3 </t>
+    <t xml:space="preserve">7.2.3 </t>
   </si>
   <si>
     <t>Dust</t>
@@ -1106,7 +1137,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.4 </t>
+    <t xml:space="preserve">7.2.4 </t>
   </si>
   <si>
     <t>Organics</t>
@@ -1118,19 +1149,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
   </si>
   <si>
-    <t>6.3</t>
+    <t>7.3</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Mixtures</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.1 </t>
+    <t xml:space="preserve">7.3.1 </t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.overview</t>
   </si>
   <si>
-    <t>6.3.2 *</t>
+    <t>7.3.2 *</t>
   </si>
   <si>
     <t>External</t>
@@ -1142,7 +1173,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
   </si>
   <si>
-    <t>6.3.3 *</t>
+    <t>7.3.3 *</t>
   </si>
   <si>
     <t>Internal</t>
@@ -1154,7 +1185,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.4 </t>
+    <t xml:space="preserve">7.3.4 </t>
   </si>
   <si>
     <t>Mixing Rule</t>
@@ -1166,7 +1197,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
   </si>
   <si>
-    <t>6.4</t>
+    <t>7.4</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
@@ -1175,7 +1206,7 @@
     <t>The impact of H2O on aerosols</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4.1 </t>
+    <t xml:space="preserve">7.4.1 </t>
   </si>
   <si>
     <t>Overview of the impact of h2o on aerosols in aerosol model.</t>
@@ -1184,7 +1215,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.overview</t>
   </si>
   <si>
-    <t>6.4.2 *</t>
+    <t>7.4.2 *</t>
   </si>
   <si>
     <t>Size</t>
@@ -1196,7 +1227,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
   </si>
   <si>
-    <t>6.4.3 *</t>
+    <t>7.4.3 *</t>
   </si>
   <si>
     <t>Internal Mixture</t>
@@ -1208,7 +1239,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
   </si>
   <si>
-    <t>6.4.4 *</t>
+    <t>7.4.4 *</t>
   </si>
   <si>
     <t>External Mixture</t>
@@ -1220,7 +1251,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
   </si>
   <si>
-    <t>6.5</t>
+    <t>7.5</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
@@ -1229,7 +1260,7 @@
     <t>Radiative scheme for aerosol</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5.1 </t>
+    <t xml:space="preserve">7.5.1 </t>
   </si>
   <si>
     <t>Overview of radiative scheme for aerosol in aerosol model.</t>
@@ -1238,13 +1269,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
   </si>
   <si>
-    <t>6.5.2 *</t>
+    <t>7.5.2 *</t>
   </si>
   <si>
     <t>Overview of radiative scheme</t>
   </si>
   <si>
-    <t>6.5.3 *</t>
+    <t>7.5.3 *</t>
   </si>
   <si>
     <t>Shortwave Bands</t>
@@ -1256,7 +1287,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
   </si>
   <si>
-    <t>6.5.4 *</t>
+    <t>7.5.4 *</t>
   </si>
   <si>
     <t>Longwave Bands</t>
@@ -1268,7 +1299,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
   </si>
   <si>
-    <t>6.6</t>
+    <t>7.6</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
@@ -1277,7 +1308,7 @@
     <t>Aerosol-cloud interactions</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6.1 </t>
+    <t xml:space="preserve">7.6.1 </t>
   </si>
   <si>
     <t>Overview of aerosol-cloud interactions in aerosol model.</t>
@@ -1286,13 +1317,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
   </si>
   <si>
-    <t>6.6.2 *</t>
+    <t>7.6.2 *</t>
   </si>
   <si>
     <t>Overview of aerosol-cloud interactions</t>
   </si>
   <si>
-    <t>6.6.3 *</t>
+    <t>7.6.3 *</t>
   </si>
   <si>
     <t>Twomey</t>
@@ -1304,7 +1335,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6.4 </t>
+    <t xml:space="preserve">7.6.4 </t>
   </si>
   <si>
     <t>Twomey Minimum Ccn</t>
@@ -1316,7 +1347,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
   </si>
   <si>
-    <t>6.6.5 *</t>
+    <t>7.6.5 *</t>
   </si>
   <si>
     <t>Drizzle</t>
@@ -1328,7 +1359,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
   </si>
   <si>
-    <t>6.6.6 *</t>
+    <t>7.6.6 *</t>
   </si>
   <si>
     <t>Cloud Lifetime</t>
@@ -1340,19 +1371,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
   </si>
   <si>
-    <t>6.6.7 *</t>
+    <t>7.6.7 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">8.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the model in aerosol model.</t>
@@ -1361,7 +1392,7 @@
     <t>cmip6.aerosol.model.name</t>
   </si>
   <si>
-    <t>7.1.2 *</t>
+    <t>8.1.2 *</t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol model</t>
@@ -1370,7 +1401,7 @@
     <t>cmip6.aerosol.model.overview</t>
   </si>
   <si>
-    <t>7.1.3 *</t>
+    <t>8.1.3 *</t>
   </si>
   <si>
     <t>Processes</t>
@@ -1421,7 +1452,7 @@
     <t>Nucleation</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">8.1.4 </t>
   </si>
   <si>
     <t>Coupling</t>
@@ -1457,7 +1488,7 @@
     <t>Other: landsurface</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>8.1.5 *</t>
   </si>
   <si>
     <t>Gas Phase Precursors</t>
@@ -1493,7 +1524,7 @@
     <t>NOx</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>8.1.6 *</t>
   </si>
   <si>
     <t>Scheme Type</t>
@@ -1514,7 +1545,7 @@
     <t>Modal</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>8.1.7 *</t>
   </si>
   <si>
     <t>Bulk Scheme Species</t>
@@ -1569,7 +1600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1611,9 +1642,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1638,14 +1668,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1695,7 +1733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1712,10 +1750,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1727,11 +1762,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2027,7 +2068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD18"/>
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2113,31 +2154,119 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD161"/>
   <sheetViews>
@@ -2152,219 +2281,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
+      <c r="A1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>23</v>
+      <c r="B2" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>34</v>
+      <c r="B10" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>36</v>
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>39</v>
+      <c r="B15" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>41</v>
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>44</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>52</v>
+      <c r="A23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>54</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>57</v>
+      <c r="A27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>59</v>
+      <c r="A28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>45</v>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AA30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AB30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC30" s="5" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>64</v>
+      <c r="A32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>67</v>
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -2373,22 +2502,22 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>69</v>
+      <c r="A36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>72</v>
+      <c r="A37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -2397,667 +2526,667 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>74</v>
+      <c r="A41" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="7" t="s">
-        <v>75</v>
+      <c r="B42" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>77</v>
+      <c r="A44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>79</v>
+      <c r="A45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>81</v>
+      <c r="A48" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>83</v>
+      <c r="A49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>85</v>
+      <c r="A52" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>87</v>
+      <c r="A53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="12" t="s">
-        <v>34</v>
+      <c r="B54" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="11"/>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>89</v>
+      <c r="A58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="7" t="s">
-        <v>90</v>
+      <c r="B59" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>36</v>
+      <c r="A61" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>93</v>
+      <c r="A62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="11"/>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>95</v>
+      <c r="A65" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>97</v>
+      <c r="A66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>103</v>
+      <c r="A69" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>105</v>
+      <c r="A70" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="11"/>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>107</v>
+      <c r="A73" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>109</v>
+      <c r="A74" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>111</v>
+      <c r="A77" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>113</v>
+      <c r="A78" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>115</v>
+      <c r="A81" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>117</v>
+      <c r="A82" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AB83" s="5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AC83" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AD83" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AE83" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AF83" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AG83" s="5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AH83" s="5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AI83" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>127</v>
+      <c r="A86" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
-      <c r="B87" s="7"/>
+      <c r="B87" s="13"/>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>36</v>
+      <c r="A89" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>130</v>
+      <c r="A90" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
     </row>
     <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>132</v>
+      <c r="A93" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>134</v>
+      <c r="A94" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="B95" s="12" t="s">
-        <v>34</v>
+      <c r="B95" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="24" customHeight="1">
       <c r="B96" s="11"/>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>136</v>
+      <c r="A98" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>138</v>
+      <c r="A99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="12" t="s">
-        <v>34</v>
+      <c r="B100" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="11"/>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>140</v>
+      <c r="A103" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>142</v>
+      <c r="A104" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>144</v>
+      <c r="A108" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="7" t="s">
-        <v>145</v>
+      <c r="B109" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>36</v>
+      <c r="A111" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>148</v>
+      <c r="A112" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>25</v>
+      <c r="A115" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>151</v>
+      <c r="A116" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>153</v>
+      <c r="A119" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>155</v>
+      <c r="A120" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>157</v>
+      <c r="A123" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>159</v>
+      <c r="A124" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="B125" s="11"/>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>161</v>
+      <c r="A127" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>163</v>
+      <c r="A128" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="B129" s="11"/>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="A131" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>165</v>
+      <c r="A131" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>167</v>
+      <c r="A132" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="B133" s="11"/>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>169</v>
+      <c r="A136" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="B137" s="7" t="s">
-        <v>170</v>
+      <c r="B137" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="A139" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>36</v>
+      <c r="A139" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>173</v>
+      <c r="A140" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="11"/>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>175</v>
+      <c r="A143" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>177</v>
+      <c r="A144" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="B145" s="12" t="s">
-        <v>39</v>
+      <c r="B145" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="178" customHeight="1">
       <c r="B146" s="11"/>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>179</v>
+      <c r="A148" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>181</v>
+      <c r="A149" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="12" t="s">
-        <v>34</v>
+      <c r="B150" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="B151" s="11"/>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>183</v>
+      <c r="A153" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>185</v>
+      <c r="A154" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="B155" s="12" t="s">
-        <v>34</v>
+      <c r="B155" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="11"/>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>187</v>
+      <c r="A158" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>189</v>
+      <c r="A159" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="12" t="s">
-        <v>34</v>
+      <c r="B160" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="24" customHeight="1">
@@ -3109,7 +3238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD43"/>
   <sheetViews>
@@ -3124,229 +3253,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>191</v>
+      <c r="A1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>192</v>
+      <c r="B2" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>195</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>198</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>200</v>
+      <c r="A13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>202</v>
+      <c r="A14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>204</v>
+      <c r="A18" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>205</v>
+      <c r="B19" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
+      <c r="A21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>208</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
+      <c r="A25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>210</v>
+      <c r="A26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>153</v>
+      <c r="A29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>213</v>
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>157</v>
+      <c r="A33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>215</v>
+      <c r="A34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>161</v>
+      <c r="A37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>217</v>
+      <c r="A38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>165</v>
+      <c r="A41" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>220</v>
+      <c r="A42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3371,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD25"/>
   <sheetViews>
@@ -3386,183 +3515,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>222</v>
+      <c r="A1" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>223</v>
+      <c r="B2" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>226</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>229</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>231</v>
+      <c r="A13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>233</v>
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>240</v>
+      <c r="A17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>242</v>
+      <c r="A18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>45</v>
+      <c r="B19" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="5" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>247</v>
+      <c r="A22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>249</v>
+      <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="B24" s="12" t="s">
-        <v>45</v>
+      <c r="B24" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="5" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD49"/>
   <sheetViews>
@@ -3596,331 +3725,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>253</v>
+      <c r="A1" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>254</v>
+      <c r="B2" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>257</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>260</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>95</v>
+      <c r="A13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>263</v>
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>271</v>
+      <c r="A18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>273</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>283</v>
+      <c r="A23" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>285</v>
+      <c r="A24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="5" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>292</v>
+      <c r="A27" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>294</v>
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>34</v>
+      <c r="B29" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>296</v>
+      <c r="A32" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>298</v>
+      <c r="A33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="12" t="s">
-        <v>34</v>
+      <c r="B34" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>300</v>
+      <c r="A37" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>302</v>
+      <c r="A38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="12" t="s">
-        <v>34</v>
+      <c r="B39" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>304</v>
+      <c r="A42" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>306</v>
+      <c r="A43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="12" t="s">
-        <v>34</v>
+      <c r="B44" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>308</v>
+      <c r="A47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>310</v>
+      <c r="A48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="24" customHeight="1">
@@ -3942,7 +4071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD31"/>
   <sheetViews>
@@ -3957,174 +4086,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>312</v>
+      <c r="A1" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>313</v>
+      <c r="B2" s="13" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>316</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>319</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>321</v>
+      <c r="A13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>323</v>
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>34</v>
+      <c r="B15" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>324</v>
-      </c>
+      <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>326</v>
+      <c r="A18" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>328</v>
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>34</v>
+      <c r="B20" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="B21" s="11" t="s">
-        <v>324</v>
-      </c>
+      <c r="B21" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>330</v>
+      <c r="A23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>332</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="B25" s="12" t="s">
-        <v>34</v>
+      <c r="B25" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>334</v>
+      <c r="A28" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>336</v>
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="B30" s="12" t="s">
-        <v>34</v>
+      <c r="B30" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4135,7 +4260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
@@ -4150,641 +4275,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>338</v>
+      <c r="A1" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>339</v>
+      <c r="B2" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>342</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>345</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>347</v>
+      <c r="A14" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>348</v>
+      <c r="B15" s="13" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
+      <c r="A17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>351</v>
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>353</v>
+      <c r="A21" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>356</v>
+      <c r="A22" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>358</v>
+      <c r="A25" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>360</v>
+      <c r="A26" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>362</v>
+      <c r="A29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>364</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>366</v>
+      <c r="A34" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="7"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>36</v>
+      <c r="A37" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>368</v>
+      <c r="A38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>370</v>
+      <c r="A41" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>372</v>
+      <c r="A42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>374</v>
+      <c r="A45" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>376</v>
+      <c r="A46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>378</v>
+      <c r="A49" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>380</v>
+      <c r="A50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>382</v>
+      <c r="A54" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="7" t="s">
-        <v>383</v>
+      <c r="B55" s="13" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>36</v>
+      <c r="A57" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>386</v>
+      <c r="A58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>388</v>
+      <c r="A61" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>390</v>
+      <c r="A62" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="11"/>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>392</v>
+      <c r="A65" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>394</v>
+      <c r="A66" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>396</v>
+      <c r="A69" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>398</v>
+      <c r="A70" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="B71" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>400</v>
+      <c r="A74" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="7" t="s">
-        <v>401</v>
+      <c r="B75" s="13" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>36</v>
+      <c r="A77" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>404</v>
+      <c r="A78" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>36</v>
+      <c r="A81" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>404</v>
+      <c r="A82" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="12" t="s">
-        <v>39</v>
+      <c r="B83" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="178" customHeight="1">
       <c r="B84" s="11"/>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>408</v>
+      <c r="A86" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>410</v>
+      <c r="A87" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="B88" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>412</v>
+      <c r="A90" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>414</v>
+      <c r="A91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>416</v>
+      <c r="A95" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="7" t="s">
-        <v>417</v>
+      <c r="B96" s="13" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>36</v>
+      <c r="A98" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>420</v>
+      <c r="A99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="11"/>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>36</v>
+      <c r="A102" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>420</v>
+      <c r="A103" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="12" t="s">
-        <v>39</v>
+      <c r="B104" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="178" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>424</v>
+      <c r="A107" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>426</v>
+      <c r="A108" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>428</v>
+      <c r="A111" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>430</v>
+      <c r="A112" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>432</v>
+      <c r="A115" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>434</v>
+      <c r="A116" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>436</v>
+      <c r="A119" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>438</v>
+      <c r="A120" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>412</v>
+      <c r="A123" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>440</v>
+      <c r="A124" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -4845,7 +4970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD55"/>
   <sheetViews>
@@ -4860,1106 +4985,1106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>442</v>
+      <c r="B2" s="13" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>445</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>448</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>450</v>
+      <c r="A13" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>452</v>
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG17" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH17" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="AA17" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD17" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE17" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF17" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH17" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI17" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="AK17" s="5" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL17" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AD18" s="5" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AK18" s="5" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL18" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AM18" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL19" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA20" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="AA20" s="5" t="s">
-        <v>454</v>
-      </c>
       <c r="AB20" s="5" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AG20" s="5" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL20" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AK21" s="5" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL21" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AI22" s="5" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL22" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AM22" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AF23" s="5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AK23" s="5" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL23" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AM23" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL24" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AM24" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AM25" s="5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>467</v>
+      <c r="A27" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>469</v>
+      <c r="A28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>45</v>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AF30" s="5" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="AG30" s="5" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AH30" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="AA31" s="5" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AF31" s="5" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="AG31" s="5" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AH31" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AA32" s="5" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AD32" s="5" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AF32" s="5" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="AG32" s="5" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AH32" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AA33" s="5" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="AD33" s="5" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AF33" s="5" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="AG33" s="5" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AH33" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>479</v>
+      <c r="A35" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>481</v>
+      <c r="A36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
-      <c r="B37" s="12" t="s">
-        <v>45</v>
+      <c r="B37" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AA38" s="5" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="AD38" s="5" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="AF38" s="5" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AG38" s="5" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AH38" s="5" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AI38" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AH39" s="5" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AH40" s="5" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AI40" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>491</v>
+      <c r="A42" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>493</v>
+      <c r="A43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="24" customHeight="1">
-      <c r="B44" s="12" t="s">
-        <v>45</v>
+      <c r="B44" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AA45" s="5" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="AB45" s="5" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="AC45" s="5" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AD45" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="AA46" s="5" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="AB46" s="5" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="AC46" s="5" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AD46" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:35" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>498</v>
+      <c r="A48" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="24" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>500</v>
+      <c r="A49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="24" customHeight="1">
-      <c r="B50" s="12" t="s">
-        <v>45</v>
+      <c r="B50" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AA51" s="5" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AC51" s="5" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="AD51" s="5" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE51" s="5" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="AF51" s="5" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AG51" s="5" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AH51" s="5" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AJ51" s="5" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AK51" s="5" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AL51" s="5" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AM51" s="5" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="AN51" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA52" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB52" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="AA52" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="AB52" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="AC52" s="5" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="AD52" s="5" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE52" s="5" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="AF52" s="5" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AG52" s="5" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AH52" s="5" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AI52" s="5" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AJ52" s="5" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AK52" s="5" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AL52" s="5" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AM52" s="5" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="AN52" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AA53" s="5" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AB53" s="5" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AC53" s="5" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="AD53" s="5" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE53" s="5" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="AF53" s="5" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AG53" s="5" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AH53" s="5" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AI53" s="5" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AJ53" s="5" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AK53" s="5" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AL53" s="5" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AM53" s="5" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="AN53" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="24" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AA54" s="5" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AB54" s="5" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AC54" s="5" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="AD54" s="5" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE54" s="5" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="AF54" s="5" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AG54" s="5" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AH54" s="5" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AJ54" s="5" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AK54" s="5" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AL54" s="5" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AM54" s="5" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="AN54" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AA55" s="5" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AC55" s="5" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="AD55" s="5" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AE55" s="5" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="AF55" s="5" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AG55" s="5" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AH55" s="5" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AJ55" s="5" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AK55" s="5" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AL55" s="5" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AM55" s="5" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="AN55" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_aerosol.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_aerosol.xlsx
@@ -45,7 +45,7 @@
     <t>GFDL-AM4</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Aerosol</t>

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_aerosol.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_aerosol.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="499">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -252,9 +252,6 @@
     <t>cmip6.aerosol.key_properties.prognostic_variables_form</t>
   </si>
   <si>
-    <t>Other: 3d mass/volume mixing ratio for aerosols</t>
-  </si>
-  <si>
     <t>3D mass/volume ratio for aerosols</t>
   </si>
   <si>
@@ -357,9 +354,6 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.method</t>
   </si>
   <si>
-    <t>Other: uses atmosphericchemistry time stepping</t>
-  </si>
-  <si>
     <t>Uses atmospheric chemistry time stepping</t>
   </si>
   <si>
@@ -1491,6 +1485,9 @@
     <t>cmip6.aerosol.model.bulk_scheme_species</t>
   </si>
   <si>
+    <t>Black carbon / soot</t>
+  </si>
+  <si>
     <t>Sulphate</t>
   </si>
   <si>
@@ -1504,9 +1501,6 @@
   </si>
   <si>
     <t>Organic</t>
-  </si>
-  <si>
-    <t>Black carbon / soot</t>
   </si>
   <si>
     <t>SOA (secondary organic aerosols)</t>
@@ -2453,10 +2447,10 @@
         <v>76</v>
       </c>
       <c r="AA30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB30" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>66</v>
@@ -2464,21 +2458,21 @@
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -2488,21 +2482,21 @@
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -2512,23 +2506,23 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -2536,10 +2530,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -2547,10 +2541,10 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -2558,10 +2552,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -2569,10 +2563,10 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -2580,10 +2574,10 @@
         <v>43</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -2596,23 +2590,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -2620,24 +2614,24 @@
         <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB63" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AA63" s="6" t="s">
+      <c r="AC63" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC63" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="AD63" s="6" t="s">
         <v>66</v>
@@ -2645,21 +2639,21 @@
     </row>
     <row r="65" spans="1:35" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:35" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:35" ht="24" customHeight="1">
@@ -2667,21 +2661,21 @@
     </row>
     <row r="69" spans="1:35" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:35" ht="24" customHeight="1">
       <c r="A70" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:35" ht="24" customHeight="1">
@@ -2689,21 +2683,21 @@
     </row>
     <row r="73" spans="1:35" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:35" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:35" ht="24" customHeight="1">
@@ -2711,10 +2705,10 @@
     </row>
     <row r="77" spans="1:35" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:35" ht="24" customHeight="1">
@@ -2722,37 +2716,37 @@
         <v>59</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:35" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC79" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AB79" s="6" t="s">
+      <c r="AD79" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AC79" s="6" t="s">
+      <c r="AE79" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AD79" s="6" t="s">
+      <c r="AF79" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AE79" s="6" t="s">
+      <c r="AG79" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AF79" s="6" t="s">
+      <c r="AH79" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="AG79" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH79" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="AI79" s="6" t="s">
         <v>66</v>
@@ -2760,10 +2754,10 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -2771,10 +2765,10 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
@@ -2782,10 +2776,10 @@
         <v>43</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
@@ -2798,10 +2792,10 @@
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
@@ -2809,10 +2803,10 @@
         <v>43</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -2825,21 +2819,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -2847,20 +2841,20 @@
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>42</v>
@@ -2871,10 +2865,10 @@
         <v>43</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -2882,10 +2876,10 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
@@ -2893,10 +2887,10 @@
         <v>43</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -2904,21 +2898,21 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
@@ -2926,21 +2920,21 @@
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="A115" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="A116" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
@@ -2948,21 +2942,21 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -2970,23 +2964,23 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="B125" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="A127" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
@@ -2994,10 +2988,10 @@
         <v>43</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -3010,10 +3004,10 @@
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -3021,10 +3015,10 @@
         <v>43</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -3037,10 +3031,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -3048,10 +3042,10 @@
         <v>43</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -3064,10 +3058,10 @@
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -3075,10 +3069,10 @@
         <v>43</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -3151,20 +3145,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3175,10 +3169,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3186,7 +3180,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3197,10 +3191,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3213,21 +3207,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3235,20 +3229,20 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3259,10 +3253,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3270,10 +3264,10 @@
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3281,10 +3275,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3292,21 +3286,21 @@
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3314,21 +3308,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3336,21 +3330,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -3391,20 +3385,20 @@
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3415,10 +3409,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
@@ -3426,7 +3420,7 @@
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3437,10 +3431,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
@@ -3453,10 +3447,10 @@
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
@@ -3464,36 +3458,36 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="AB15" s="6" t="s">
+      <c r="AD15" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="AC15" s="6" t="s">
+      <c r="AE15" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
@@ -3501,10 +3495,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -3515,16 +3509,16 @@
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AB20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD20" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="AE20" s="6" t="s">
         <v>66</v>
@@ -3532,10 +3526,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -3543,10 +3537,10 @@
         <v>59</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -3557,13 +3551,13 @@
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>66</v>
@@ -3601,20 +3595,20 @@
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3625,10 +3619,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
@@ -3636,7 +3630,7 @@
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3647,10 +3641,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
@@ -3663,10 +3657,10 @@
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
@@ -3674,10 +3668,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
@@ -3688,22 +3682,22 @@
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC16" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="AB16" s="6" t="s">
+      <c r="AD16" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="AC16" s="6" t="s">
+      <c r="AE16" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AD16" s="6" t="s">
+      <c r="AF16" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="AG16" s="6" t="s">
         <v>66</v>
@@ -3711,10 +3705,10 @@
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -3722,10 +3716,10 @@
         <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
@@ -3736,28 +3730,28 @@
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC21" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AB21" s="6" t="s">
+      <c r="AD21" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AE21" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AF21" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AG21" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AH21" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="AG21" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="AI21" s="6" t="s">
         <v>66</v>
@@ -3765,10 +3759,10 @@
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
@@ -3776,36 +3770,36 @@
         <v>59</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC25" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AE25" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
@@ -3813,10 +3807,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
@@ -3829,10 +3823,10 @@
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -3840,10 +3834,10 @@
         <v>43</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
@@ -3856,10 +3850,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3867,10 +3861,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -3883,10 +3877,10 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3894,10 +3888,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -3910,10 +3904,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -3921,10 +3915,10 @@
         <v>43</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="24" customHeight="1">
@@ -3962,20 +3956,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3986,10 +3980,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3997,7 +3991,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -4008,10 +4002,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4024,10 +4018,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4035,10 +4029,10 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4051,10 +4045,10 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -4062,10 +4056,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -4078,10 +4072,10 @@
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -4089,10 +4083,10 @@
         <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
@@ -4105,10 +4099,10 @@
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -4116,10 +4110,10 @@
         <v>43</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
@@ -4151,20 +4145,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4175,10 +4169,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4186,7 +4180,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -4197,10 +4191,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4213,34 +4207,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -4248,21 +4242,21 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -4270,21 +4264,21 @@
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -4292,10 +4286,10 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4303,21 +4297,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4325,21 +4319,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4347,10 +4341,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -4358,10 +4352,10 @@
         <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4369,34 +4363,34 @@
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -4404,21 +4398,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -4426,21 +4420,21 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4448,20 +4442,20 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>53</v>
@@ -4472,10 +4466,10 @@
         <v>43</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4488,21 +4482,21 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -4510,21 +4504,21 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -4532,20 +4526,20 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>53</v>
@@ -4556,10 +4550,10 @@
         <v>43</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -4572,21 +4566,21 @@
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4594,21 +4588,21 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -4616,21 +4610,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4638,21 +4632,21 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -4660,21 +4654,21 @@
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4737,7 +4731,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD51"/>
+  <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4751,7 +4745,7 @@
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -4759,12 +4753,12 @@
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4775,10 +4769,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
@@ -4786,7 +4780,7 @@
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -4797,10 +4791,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
@@ -4813,10 +4807,10 @@
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
@@ -4824,10 +4818,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
@@ -4837,450 +4831,450 @@
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB16" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AC16" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AB16" s="6" t="s">
+      <c r="AD16" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="AC16" s="6" t="s">
+      <c r="AE16" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="AD16" s="6" t="s">
+      <c r="AF16" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="AE16" s="6" t="s">
+      <c r="AG16" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="AF16" s="6" t="s">
+      <c r="AH16" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AG16" s="6" t="s">
+      <c r="AI16" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AH16" s="6" t="s">
+      <c r="AJ16" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK16" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AI16" s="6" t="s">
+      <c r="AL16" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AJ16" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK16" s="6" t="s">
+      <c r="AM16" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AL16" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM16" s="6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AM17" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AA17" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AF17" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AL17" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM17" s="6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL18" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AA18" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC18" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AF18" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH18" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="AI18" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK18" s="6" t="s">
+      <c r="AM18" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AL18" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM18" s="6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC19" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AD19" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AE19" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AG19" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AH19" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AG19" s="6" t="s">
+      <c r="AI19" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AH19" s="6" t="s">
+      <c r="AJ19" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK19" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AI19" s="6" t="s">
+      <c r="AL19" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AJ19" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK19" s="6" t="s">
+      <c r="AM19" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AL19" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM19" s="6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AA20" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AB20" s="6" t="s">
+      <c r="AD20" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="AC20" s="6" t="s">
+      <c r="AE20" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AF20" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="AE20" s="6" t="s">
+      <c r="AG20" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="AF20" s="6" t="s">
+      <c r="AH20" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AG20" s="6" t="s">
+      <c r="AI20" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AH20" s="6" t="s">
+      <c r="AJ20" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK20" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AI20" s="6" t="s">
+      <c r="AL20" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AJ20" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK20" s="6" t="s">
+      <c r="AM20" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AL20" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM20" s="6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH21" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AA21" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG21" s="6" t="s">
+      <c r="AI21" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AH21" s="6" t="s">
+      <c r="AJ21" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK21" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AI21" s="6" t="s">
+      <c r="AL21" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AJ21" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK21" s="6" t="s">
+      <c r="AM21" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AL21" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM21" s="6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI22" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AA22" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH22" s="6" t="s">
+      <c r="AJ22" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK22" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AI22" s="6" t="s">
+      <c r="AL22" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AJ22" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK22" s="6" t="s">
+      <c r="AM22" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AL22" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM22" s="6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD23" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="AA23" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AE23" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="AE23" s="6" t="s">
+      <c r="AG23" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="AF23" s="6" t="s">
+      <c r="AH23" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AG23" s="6" t="s">
+      <c r="AI23" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AH23" s="6" t="s">
+      <c r="AJ23" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK23" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AI23" s="6" t="s">
+      <c r="AL23" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AJ23" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK23" s="6" t="s">
+      <c r="AM23" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AL23" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM23" s="6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE24" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="AA24" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AF24" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="AE24" s="6" t="s">
+      <c r="AG24" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AH24" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AG24" s="6" t="s">
+      <c r="AI24" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AH24" s="6" t="s">
+      <c r="AJ24" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK24" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AI24" s="6" t="s">
+      <c r="AL24" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AJ24" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK24" s="6" t="s">
+      <c r="AM24" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AL24" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM24" s="6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF25" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="AA25" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AG25" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AH25" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AI25" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="AJ25" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK25" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AL25" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="AJ25" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK25" s="6" t="s">
+      <c r="AM25" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="AL25" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM25" s="6" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="24" customHeight="1">
@@ -5288,10 +5282,10 @@
         <v>59</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="24" customHeight="1">
@@ -5301,28 +5295,28 @@
     </row>
     <row r="30" spans="1:39" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB30" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="AA30" s="6" t="s">
+      <c r="AC30" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE30" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AB30" s="6" t="s">
+      <c r="AF30" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AC30" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE30" s="6" t="s">
+      <c r="AG30" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG30" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="AH30" s="6" t="s">
         <v>66</v>
@@ -5330,28 +5324,28 @@
     </row>
     <row r="31" spans="1:39" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AA31" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE31" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AB31" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AC31" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE31" s="6" t="s">
+      <c r="AG31" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="AF31" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG31" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="AH31" s="6" t="s">
         <v>66</v>
@@ -5359,28 +5353,28 @@
     </row>
     <row r="32" spans="1:39" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AA32" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE32" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AB32" s="6" t="s">
+      <c r="AF32" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AC32" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AD32" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE32" s="6" t="s">
+      <c r="AG32" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="AF32" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG32" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="AH32" s="6" t="s">
         <v>66</v>
@@ -5388,28 +5382,28 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE33" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AA33" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB33" s="6" t="s">
+      <c r="AF33" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AC33" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE33" s="6" t="s">
+      <c r="AG33" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG33" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="AH33" s="6" t="s">
         <v>66</v>
@@ -5417,10 +5411,10 @@
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="24" customHeight="1">
@@ -5428,10 +5422,10 @@
         <v>59</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
@@ -5441,31 +5435,31 @@
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC38" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="AA38" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="AB38" s="6" t="s">
+      <c r="AD38" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="AC38" s="6" t="s">
+      <c r="AE38" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AF38" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AE38" s="6" t="s">
+      <c r="AG38" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AF38" s="6" t="s">
+      <c r="AH38" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="AG38" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AH38" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="AI38" s="6" t="s">
         <v>66</v>
@@ -5473,31 +5467,31 @@
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD39" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="AA39" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="AC39" s="6" t="s">
+      <c r="AE39" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AF39" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AE39" s="6" t="s">
+      <c r="AG39" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AF39" s="6" t="s">
+      <c r="AH39" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="AG39" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AH39" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="AI39" s="6" t="s">
         <v>66</v>
@@ -5505,31 +5499,31 @@
     </row>
     <row r="40" spans="1:35" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG40" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AA40" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="AB40" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="AC40" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="AD40" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="AE40" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="AF40" s="6" t="s">
+      <c r="AH40" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="AG40" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AH40" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="AI40" s="6" t="s">
         <v>66</v>
@@ -5537,10 +5531,10 @@
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
@@ -5548,10 +5542,10 @@
         <v>59</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:35" ht="24" customHeight="1">
@@ -5561,16 +5555,16 @@
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB45" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="AA45" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>484</v>
-      </c>
       <c r="AC45" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>66</v>
@@ -5578,16 +5572,16 @@
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AD46" s="6" t="s">
         <v>66</v>
@@ -5595,10 +5589,10 @@
     </row>
     <row r="48" spans="1:35" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="24" customHeight="1">
@@ -5606,10 +5600,10 @@
         <v>59</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="24" customHeight="1">
@@ -5618,52 +5612,242 @@
       </c>
     </row>
     <row r="51" spans="1:40" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
+      <c r="B51" s="11" t="s">
+        <v>487</v>
+      </c>
       <c r="AA51" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB51" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AB51" s="6" t="s">
+      <c r="AC51" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="AC51" s="6" t="s">
+      <c r="AD51" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE51" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="AD51" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AE51" s="6" t="s">
+      <c r="AF51" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="AF51" s="6" t="s">
+      <c r="AG51" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH51" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="AG51" s="6" t="s">
+      <c r="AI51" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="AH51" s="6" t="s">
+      <c r="AJ51" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="AI51" s="6" t="s">
+      <c r="AK51" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="AJ51" s="6" t="s">
+      <c r="AL51" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="AK51" s="6" t="s">
+      <c r="AM51" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="AL51" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="AM51" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="AN51" s="6" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="52" spans="1:40" ht="24" customHeight="1">
+      <c r="B52" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF52" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG52" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH52" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI52" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ52" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AK52" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AL52" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM52" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AN52" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="24" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF53" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG53" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH53" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI53" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ53" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AK53" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AL53" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM53" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AN53" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" ht="24" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF54" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG54" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH54" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI54" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ54" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AK54" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AL54" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM54" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AN54" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF55" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH55" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI55" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ55" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AK55" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AL55" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="AN55" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="20">
+  <dataValidations count="24">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>AA16:AM16</formula1>
     </dataValidation>
@@ -5723,6 +5907,18 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
       <formula1>AA51:AN51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>AA52:AN52</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>AA53:AN53</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>AA54:AN54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>AA55:AN55</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
